--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_40.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_40.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_8</t>
+          <t>model_1_40_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999229086629219</v>
+        <v>0.935833593645398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8279114964382067</v>
+        <v>0.743307243532054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8199653468407007</v>
+        <v>0.6661854232630734</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997967968862623</v>
+        <v>0.9237455288995438</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003208947486822798</v>
+        <v>0.267094379490847</v>
       </c>
       <c r="G2" t="n">
-        <v>1.150756615712409</v>
+        <v>1.716505644462617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6439735153418357</v>
+        <v>1.194035385306719</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005056426570932697</v>
+        <v>0.2507546772848082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05722216607496526</v>
+        <v>1.26719199604563</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01791353534850895</v>
+        <v>0.5168117447299809</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004933845572999</v>
+        <v>0.9126244679426696</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01819565562328223</v>
+        <v>0.524951013087269</v>
       </c>
       <c r="N2" t="n">
-        <v>146.088794748651</v>
+        <v>36.64030640360507</v>
       </c>
       <c r="O2" t="n">
-        <v>287.4239672918674</v>
+        <v>73.60488999183089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_7</t>
+          <t>model_1_40_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999921523869775</v>
+        <v>0.935970792416972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8278751022366033</v>
+        <v>0.7429502967892627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8198575906362345</v>
+        <v>0.6652124580395191</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998033096343878</v>
+        <v>0.9255528796689819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003266589871258605</v>
+        <v>0.2665232859413978</v>
       </c>
       <c r="G3" t="n">
-        <v>1.150999983906111</v>
+        <v>1.718892548975251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6443589530371471</v>
+        <v>1.197515625495608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004894365901361431</v>
+        <v>0.2448113974693353</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0575470061390892</v>
+        <v>1.26796104257934</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01807370983295517</v>
+        <v>0.516258933037868</v>
       </c>
       <c r="L3" t="n">
-        <v>1.005022472334403</v>
+        <v>0.9128112918018342</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01835835269574274</v>
+        <v>0.5243894951636141</v>
       </c>
       <c r="N3" t="n">
-        <v>146.053187568085</v>
+        <v>36.64458732460515</v>
       </c>
       <c r="O3" t="n">
-        <v>287.3883601113014</v>
+        <v>73.60917091283098</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_4</t>
+          <t>model_1_40_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999091486897809</v>
+        <v>0.9369295977446188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8278495128175978</v>
+        <v>0.7396405635604358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8199148357872389</v>
+        <v>0.6558466661657018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997963258519629</v>
+        <v>0.9414760862385145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003781710042295421</v>
+        <v>0.2625322331680022</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15117110046883</v>
+        <v>1.741024750316336</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6441541904512692</v>
+        <v>1.231016519968438</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005068147603665735</v>
+        <v>0.1924496347154842</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05343916671037707</v>
+        <v>1.272982284325784</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01944661935220469</v>
+        <v>0.5123789936833888</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005814483854024</v>
+        <v>0.9141168990565022</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01975288416751442</v>
+        <v>0.5204484506428184</v>
       </c>
       <c r="N4" t="n">
-        <v>145.760328145003</v>
+        <v>36.67476282293589</v>
       </c>
       <c r="O4" t="n">
-        <v>287.0955006882194</v>
+        <v>73.63934641116171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_3</t>
+          <t>model_1_40_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999082190493386</v>
+        <v>0.9369528806333569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8278282227014147</v>
+        <v>0.7395644981785581</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8198746239404985</v>
+        <v>0.6554740158337111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997998420882789</v>
+        <v>0.9420455338846498</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003820406573888166</v>
+        <v>0.2624353175220505</v>
       </c>
       <c r="G5" t="n">
-        <v>1.151313467573779</v>
+        <v>1.741533399875202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6442980258954428</v>
+        <v>1.23234946859846</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004980650958504884</v>
+        <v>0.190577067000089</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05365968771560296</v>
+        <v>1.273100499942215</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01954586036450728</v>
+        <v>0.5122844107739865</v>
       </c>
       <c r="L5" t="n">
-        <v>1.005873980842331</v>
+        <v>0.914148603415635</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01985368812655615</v>
+        <v>0.5203523781471412</v>
       </c>
       <c r="N5" t="n">
-        <v>145.7399670441325</v>
+        <v>36.67550127350812</v>
       </c>
       <c r="O5" t="n">
-        <v>287.0751395873489</v>
+        <v>73.64008486173394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_2</t>
+          <t>model_1_40_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.99990774376499</v>
+        <v>0.9371225552593432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8278106023484991</v>
+        <v>0.7380607940123423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8198612740497824</v>
+        <v>0.6516193062515776</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998046756159639</v>
+        <v>0.9476136146552303</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003840190411780483</v>
+        <v>0.2617290423616075</v>
       </c>
       <c r="G6" t="n">
-        <v>1.151431294954859</v>
+        <v>1.751588676558608</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6443457776804633</v>
+        <v>1.246137541264848</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004860375351660148</v>
+        <v>0.17226702856466</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05352463060063146</v>
+        <v>1.274025066639787</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01959640378176691</v>
+        <v>0.5115946074399216</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005904399040638</v>
+        <v>0.9143796497148503</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01990502755211274</v>
+        <v>0.5196517111001152</v>
       </c>
       <c r="N6" t="n">
-        <v>145.7296368404095</v>
+        <v>36.68089099964693</v>
       </c>
       <c r="O6" t="n">
-        <v>287.0648093836259</v>
+        <v>73.64547458787276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_9</t>
+          <t>model_1_40_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999214832095797</v>
+        <v>0.9371325996116306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8278086207333371</v>
+        <v>0.7379025455484358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8199166036608344</v>
+        <v>0.6512200837335531</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997846163232235</v>
+        <v>0.9481559384243511</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003268282362739269</v>
+        <v>0.2616872324770585</v>
       </c>
       <c r="G7" t="n">
-        <v>1.151444546024572</v>
+        <v>1.752646884765417</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6441478668699252</v>
+        <v>1.24756553706357</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005359522923471873</v>
+        <v>0.1704836548195242</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06190278481916425</v>
+        <v>1.274090617908515</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01807839141831836</v>
+        <v>0.5115537434884614</v>
       </c>
       <c r="L7" t="n">
-        <v>1.005025074586896</v>
+        <v>0.9143933271307311</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01836310801139553</v>
+        <v>0.5196102035822684</v>
       </c>
       <c r="N7" t="n">
-        <v>146.0521515928078</v>
+        <v>36.68121051500515</v>
       </c>
       <c r="O7" t="n">
-        <v>287.3873241360242</v>
+        <v>73.64579410323097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_1</t>
+          <t>model_1_40_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999062919829785</v>
+        <v>0.9370882173326556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8277698514912266</v>
+        <v>0.7342980345023044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8198052199374871</v>
+        <v>0.6444321976092178</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998044796642118</v>
+        <v>0.9563711585131298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003900621225591353</v>
+        <v>0.2618719748981584</v>
       </c>
       <c r="G8" t="n">
-        <v>1.151703796125081</v>
+        <v>1.776750266728146</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6445462799899391</v>
+        <v>1.271845412146066</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004865251338190058</v>
+        <v>0.1434687816919988</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05387642908630916</v>
+        <v>1.274754635993087</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01974999044453276</v>
+        <v>0.5117342815350154</v>
       </c>
       <c r="L8" t="n">
-        <v>1.005997313089374</v>
+        <v>0.9143328916870204</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02006103305128682</v>
+        <v>0.5197935849225839</v>
       </c>
       <c r="N8" t="n">
-        <v>145.698409085825</v>
+        <v>36.679799080148</v>
       </c>
       <c r="O8" t="n">
-        <v>287.0335816290414</v>
+        <v>73.64438266837382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_0</t>
+          <t>model_1_40_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999052100380649</v>
+        <v>0.9370709713908225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8277207452595441</v>
+        <v>0.734103271527565</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8197208907370845</v>
+        <v>0.643980203593902</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998217834504263</v>
+        <v>0.9568509185741202</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003945657471468542</v>
+        <v>0.2619437615914508</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152032169722455</v>
+        <v>1.778052647637029</v>
       </c>
       <c r="H9" t="n">
-        <v>0.644847920650091</v>
+        <v>1.273462168530732</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004434670709858226</v>
+        <v>0.1418911420135426</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05389007401290197</v>
+        <v>1.274759158021372</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0198636790939356</v>
+        <v>0.5118044173231125</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006066557563848</v>
+        <v>0.9143094078513327</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0201765121832708</v>
+        <v>0.5198648252792335</v>
       </c>
       <c r="N9" t="n">
-        <v>145.6754495442603</v>
+        <v>36.6792508973521</v>
       </c>
       <c r="O9" t="n">
-        <v>287.0106220874766</v>
+        <v>73.64383448557791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_6</t>
+          <t>model_1_40_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999178982559026</v>
+        <v>0.9370517986288432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8277140468250123</v>
+        <v>0.7338934763732284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8196446331989373</v>
+        <v>0.6435247070307351</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998488041033714</v>
+        <v>0.9573260528224904</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003417507016619593</v>
+        <v>0.2620235687250417</v>
       </c>
       <c r="G10" t="n">
-        <v>1.152076962185013</v>
+        <v>1.779455548800095</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6451206894423774</v>
+        <v>1.275091453325972</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003762299381473365</v>
+        <v>0.1403287138254292</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0569035408503456</v>
+        <v>1.274761957101762</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01848650052503067</v>
+        <v>0.5118823778223291</v>
       </c>
       <c r="L10" t="n">
-        <v>1.005254511622233</v>
+        <v>0.9142833002605525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01877764442857912</v>
+        <v>0.5199440135783807</v>
       </c>
       <c r="N10" t="n">
-        <v>145.9628580584367</v>
+        <v>36.67864164460224</v>
       </c>
       <c r="O10" t="n">
-        <v>287.2980306016531</v>
+        <v>73.64322523282806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_40_5</t>
+          <t>model_1_40_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999169967506818</v>
+        <v>0.9370307134769092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8276995640664688</v>
+        <v>0.7336864887276864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8195674509182446</v>
+        <v>0.6430652806123831</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998500459361559</v>
+        <v>0.9577965804887321</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003455032412110544</v>
+        <v>0.2621113362328737</v>
       </c>
       <c r="G11" t="n">
-        <v>1.15217380845808</v>
+        <v>1.780839676138925</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6453967659851298</v>
+        <v>1.276734794985342</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003731398101604226</v>
+        <v>0.1387814338902424</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05746842832765499</v>
+        <v>1.274762164585113</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01858771748254891</v>
+        <v>0.5119681007962056</v>
       </c>
       <c r="L11" t="n">
-        <v>1.005312207956365</v>
+        <v>0.914254588564302</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01888045545199843</v>
+        <v>0.5200310866034042</v>
       </c>
       <c r="N11" t="n">
-        <v>145.9410170671638</v>
+        <v>36.67797183606385</v>
       </c>
       <c r="O11" t="n">
-        <v>287.2761896103801</v>
+        <v>73.64255542428967</v>
       </c>
     </row>
   </sheetData>
